--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lamc2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lamc2-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2121133333333334</v>
+        <v>0.1133093333333333</v>
       </c>
       <c r="H2">
-        <v>0.6363400000000001</v>
+        <v>0.339928</v>
       </c>
       <c r="I2">
-        <v>0.04296779043029778</v>
+        <v>0.02456654176752224</v>
       </c>
       <c r="J2">
-        <v>0.04296779043029778</v>
+        <v>0.02456654176752224</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>23.86559062176</v>
+        <v>6.916583719225779</v>
       </c>
       <c r="R2">
-        <v>214.79031559584</v>
+        <v>62.24925347303201</v>
       </c>
       <c r="S2">
-        <v>0.01407329616052071</v>
+        <v>0.005020451543587496</v>
       </c>
       <c r="T2">
-        <v>0.01407329616052071</v>
+        <v>0.005020451543587496</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2121133333333334</v>
+        <v>0.1133093333333333</v>
       </c>
       <c r="H3">
-        <v>0.6363400000000001</v>
+        <v>0.339928</v>
       </c>
       <c r="I3">
-        <v>0.04296779043029778</v>
+        <v>0.02456654176752224</v>
       </c>
       <c r="J3">
-        <v>0.04296779043029778</v>
+        <v>0.02456654176752224</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>22.55071576481334</v>
+        <v>12.04642126614933</v>
       </c>
       <c r="R3">
-        <v>202.9564418833201</v>
+        <v>108.417791395344</v>
       </c>
       <c r="S3">
-        <v>0.01329792782503268</v>
+        <v>0.008743980655107926</v>
       </c>
       <c r="T3">
-        <v>0.01329792782503268</v>
+        <v>0.008743980655107928</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2121133333333334</v>
+        <v>0.1133093333333333</v>
       </c>
       <c r="H4">
-        <v>0.6363400000000001</v>
+        <v>0.339928</v>
       </c>
       <c r="I4">
-        <v>0.04296779043029778</v>
+        <v>0.02456654176752224</v>
       </c>
       <c r="J4">
-        <v>0.04296779043029778</v>
+        <v>0.02456654176752224</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>26.44876265160445</v>
+        <v>14.88186760262044</v>
       </c>
       <c r="R4">
-        <v>238.0388638644401</v>
+        <v>133.936808423584</v>
       </c>
       <c r="S4">
-        <v>0.01559656644474439</v>
+        <v>0.01080210956882681</v>
       </c>
       <c r="T4">
-        <v>0.01559656644474439</v>
+        <v>0.01080210956882681</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>11.596231</v>
       </c>
       <c r="I5">
-        <v>0.7830160344930734</v>
+        <v>0.8380577451911468</v>
       </c>
       <c r="J5">
-        <v>0.7830160344930733</v>
+        <v>0.8380577451911468</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>434.910428075184</v>
+        <v>235.9508558841321</v>
       </c>
       <c r="R5">
-        <v>3914.193852676656</v>
+        <v>2123.557702957189</v>
       </c>
       <c r="S5">
-        <v>0.2564622579262834</v>
+        <v>0.1712666088811371</v>
       </c>
       <c r="T5">
-        <v>0.2564622579262834</v>
+        <v>0.1712666088811371</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>11.596231</v>
       </c>
       <c r="I6">
-        <v>0.7830160344930734</v>
+        <v>0.8380577451911468</v>
       </c>
       <c r="J6">
-        <v>0.7830160344930733</v>
+        <v>0.8380577451911468</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>410.9490354592153</v>
@@ -818,10 +818,10 @@
         <v>3698.541319132938</v>
       </c>
       <c r="S6">
-        <v>0.2423324683037472</v>
+        <v>0.2982902836370139</v>
       </c>
       <c r="T6">
-        <v>0.2423324683037472</v>
+        <v>0.2982902836370139</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>11.596231</v>
       </c>
       <c r="I7">
-        <v>0.7830160344930734</v>
+        <v>0.8380577451911468</v>
       </c>
       <c r="J7">
-        <v>0.7830160344930733</v>
+        <v>0.8380577451911468</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>481.9844130059051</v>
+        <v>507.6768446006297</v>
       </c>
       <c r="R7">
-        <v>4337.859717053146</v>
+        <v>4569.091601405667</v>
       </c>
       <c r="S7">
-        <v>0.2842213082630428</v>
+        <v>0.3685008526729959</v>
       </c>
       <c r="T7">
-        <v>0.2842213082630428</v>
+        <v>0.3685008526729959</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8590423333333334</v>
+        <v>0.6336240000000001</v>
       </c>
       <c r="H8">
-        <v>2.577127</v>
+        <v>1.900872</v>
       </c>
       <c r="I8">
-        <v>0.1740161750766289</v>
+        <v>0.1373757130413309</v>
       </c>
       <c r="J8">
-        <v>0.1740161750766288</v>
+        <v>0.1373757130413309</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>96.653766794928</v>
+        <v>38.67742677135201</v>
       </c>
       <c r="R8">
-        <v>869.8839011543519</v>
+        <v>348.0968409421681</v>
       </c>
       <c r="S8">
-        <v>0.05699574365005225</v>
+        <v>0.02807428563272885</v>
       </c>
       <c r="T8">
-        <v>0.05699574365005224</v>
+        <v>0.02807428563272885</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8590423333333334</v>
+        <v>0.6336240000000001</v>
       </c>
       <c r="H9">
-        <v>2.577127</v>
+        <v>1.900872</v>
       </c>
       <c r="I9">
-        <v>0.1740161750766289</v>
+        <v>0.1373757130413309</v>
       </c>
       <c r="J9">
-        <v>0.1740161750766288</v>
+        <v>0.1373757130413309</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>91.32862693972733</v>
+        <v>67.36339720478401</v>
       </c>
       <c r="R9">
-        <v>821.9576424575459</v>
+        <v>606.270574843056</v>
       </c>
       <c r="S9">
-        <v>0.05385556281538641</v>
+        <v>0.04889620153631451</v>
       </c>
       <c r="T9">
-        <v>0.05385556281538642</v>
+        <v>0.04889620153631451</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8590423333333334</v>
+        <v>0.6336240000000001</v>
       </c>
       <c r="H10">
-        <v>2.577127</v>
+        <v>1.900872</v>
       </c>
       <c r="I10">
-        <v>0.1740161750766289</v>
+        <v>0.1373757130413309</v>
       </c>
       <c r="J10">
-        <v>0.1740161750766288</v>
+        <v>0.1373757130413309</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>107.1154105447425</v>
+        <v>83.219168275424</v>
       </c>
       <c r="R10">
-        <v>964.038694902682</v>
+        <v>748.972514478816</v>
       </c>
       <c r="S10">
-        <v>0.06316486861119019</v>
+        <v>0.06040522587228756</v>
       </c>
       <c r="T10">
-        <v>0.06316486861119018</v>
+        <v>0.06040522587228757</v>
       </c>
     </row>
   </sheetData>
